--- a/params.xlsx
+++ b/params.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francesshei/BSB/NEST_neurons/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francesshei/BSB/thalmic-nest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD0D26A-BF94-F541-A408-54BF9AD58121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5F5825-F7A5-3141-BA52-2374959BC062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="500" windowWidth="14400" windowHeight="14800" xr2:uid="{E842D276-6D81-8941-A9C2-E50DA8BB1D69}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23880" windowHeight="16680" activeTab="1" xr2:uid="{E842D276-6D81-8941-A9C2-E50DA8BB1D69}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="RE" sheetId="1" r:id="rId1"/>
+    <sheet name="TC" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
   <si>
     <t>C_m</t>
   </si>
@@ -119,6 +120,9 @@
   </si>
   <si>
     <t>20.</t>
+  </si>
+  <si>
+    <t>200.</t>
   </si>
 </sst>
 </file>
@@ -473,7 +477,154 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1200DB3-8D34-7E4F-9A00-40E565723CFD}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="227" zoomScaleNormal="227" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="227" workbookViewId="0">
+      <selection activeCell="C13" sqref="A1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4F91A8-3D57-1F40-B9E4-D04E6895AB23}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -594,7 +745,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -605,7 +756,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>

--- a/params.xlsx
+++ b/params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francesshei/BSB/thalmic-nest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescosheiban/neuralenv/thalamic-nest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5F5825-F7A5-3141-BA52-2374959BC062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA1806E-9896-B146-B9D1-61E737B64049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23880" windowHeight="16680" activeTab="1" xr2:uid="{E842D276-6D81-8941-A9C2-E50DA8BB1D69}"/>
+    <workbookView xWindow="15220" yWindow="960" windowWidth="14820" windowHeight="16760" xr2:uid="{E842D276-6D81-8941-A9C2-E50DA8BB1D69}"/>
   </bookViews>
   <sheets>
     <sheet name="RE" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1200DB3-8D34-7E4F-9A00-40E565723CFD}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="227" workbookViewId="0">
-      <selection activeCell="C13" sqref="A1:C13"/>
+    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -624,7 +624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4F91A8-3D57-1F40-B9E4-D04E6895AB23}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="222" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
